--- a/upload/template_itsystem.xlsx
+++ b/upload/template_itsystem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="267">
   <si>
     <t>短字符</t>
   </si>
@@ -27,107 +27,918 @@
     <t>用户</t>
   </si>
   <si>
-    <t>10.18.33.23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>信息系统名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息系统负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否普通用户使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般业务区</t>
+  </si>
+  <si>
+    <t>海大官网</t>
+  </si>
+  <si>
+    <t>B/S</t>
+  </si>
+  <si>
+    <t>枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全员</t>
+  </si>
+  <si>
+    <t>ERP类</t>
+  </si>
+  <si>
+    <t>SAP ERP</t>
+  </si>
+  <si>
+    <t>集团核心ERP系统</t>
+  </si>
+  <si>
+    <t>李强芳</t>
+  </si>
+  <si>
+    <t>冯化伟</t>
   </si>
   <si>
     <r>
-      <t>a</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t>dmin</t>
+      <t>/S</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>222</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>231</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息系统名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息系统管理员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息系统负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要财务、生产、仓库、人力等人员</t>
+  </si>
+  <si>
+    <t>SAP PI</t>
+  </si>
+  <si>
+    <t>集团核心ERP系统中间件</t>
+  </si>
+  <si>
+    <t>潘君</t>
+  </si>
+  <si>
+    <t>SAP中控数据库</t>
+  </si>
+  <si>
+    <t>SAP中控对接</t>
+  </si>
+  <si>
+    <t>黄俊彦</t>
+  </si>
+  <si>
+    <t>金蝶EAS</t>
+  </si>
+  <si>
+    <t>叶及平</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要财务、采购、生产、仓库、人力等人员</t>
+  </si>
+  <si>
+    <t>海贝阿佳希系统</t>
+  </si>
+  <si>
+    <t>海贝erp系统</t>
+  </si>
+  <si>
+    <t>毛璐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴楚滨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要财务、仓库等人员</t>
+  </si>
+  <si>
+    <t>海兴农阿佳希系统</t>
+  </si>
+  <si>
+    <t>海兴农erp系统</t>
+  </si>
+  <si>
+    <t>吴楚滨</t>
+  </si>
+  <si>
+    <t>百容阿佳希系统</t>
+  </si>
+  <si>
+    <t>百容erp系统</t>
+  </si>
+  <si>
+    <t>石家庄阿佳系</t>
+  </si>
+  <si>
+    <t>石家庄erp系统</t>
+  </si>
+  <si>
+    <t>契约养殖系统</t>
+  </si>
+  <si>
+    <t>益豚erp系统</t>
+  </si>
+  <si>
+    <t>王瑞</t>
+  </si>
+  <si>
+    <t>陈会</t>
+  </si>
+  <si>
+    <t>SAP
+SAP PI</t>
+  </si>
+  <si>
+    <t>益豚事业部</t>
+  </si>
+  <si>
+    <t>海赢食品系统</t>
+  </si>
+  <si>
+    <t>海赢食品erp系统</t>
+  </si>
+  <si>
+    <t>单昌君</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海赢食品公司</t>
+  </si>
+  <si>
+    <t>PAS</t>
+  </si>
+  <si>
+    <t>总部生产管理系统</t>
+  </si>
+  <si>
+    <t>谭远根</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP
+SAP PI
+PDS</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>工厂生产管理系统</t>
+  </si>
+  <si>
+    <t>工厂生产计数系统</t>
+  </si>
+  <si>
+    <t>蒙国栋</t>
+  </si>
+  <si>
+    <t>总部生产计数系统</t>
+  </si>
+  <si>
+    <t>SAP BW</t>
+  </si>
+  <si>
+    <t>商业智能应用</t>
+  </si>
+  <si>
+    <t>范凡</t>
+  </si>
+  <si>
+    <t>SAP BO</t>
+  </si>
+  <si>
+    <t>SAP BW展示</t>
+  </si>
+  <si>
+    <t>范凡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableau</t>
+  </si>
+  <si>
+    <t>BI展示</t>
+  </si>
+  <si>
+    <t>黎俊炫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>采购预算审批ESS</t>
+  </si>
+  <si>
+    <t>陈伟贤</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>财务类</t>
+  </si>
+  <si>
+    <t>GS系统</t>
+  </si>
+  <si>
+    <t>资金管理系统</t>
+  </si>
+  <si>
+    <t>赵大鹏</t>
+  </si>
+  <si>
+    <t>李志渺</t>
+  </si>
+  <si>
+    <t>财务</t>
+  </si>
+  <si>
+    <t>海波龙预算系统</t>
+  </si>
+  <si>
+    <t>预算系统</t>
+  </si>
+  <si>
+    <t>钱建福</t>
+  </si>
+  <si>
+    <t>穆永芳</t>
+  </si>
+  <si>
+    <t>SAP PI
+SAP BW</t>
+  </si>
+  <si>
+    <t>预算员</t>
+  </si>
+  <si>
+    <t>预算系统ODI系统</t>
+  </si>
+  <si>
+    <t>预算系统对接</t>
+  </si>
+  <si>
+    <t>全国代收系统</t>
+  </si>
+  <si>
+    <t>收款员</t>
+  </si>
+  <si>
+    <t>小额贷款系统</t>
+  </si>
+  <si>
+    <t>小额贷款</t>
+  </si>
+  <si>
+    <t>吴木松</t>
+  </si>
+  <si>
+    <t>刘冲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事档案系统
+EPS
+财务共享
+资金系统
+SAP
+SAP PI
+AD域控
+海大供应链金融门户--Pcweb
+海大供应链金融门户--移动端web</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>财务共享系统</t>
+  </si>
+  <si>
+    <t>财务共享</t>
+  </si>
+  <si>
+    <t>人事档案系统
+EPS
+SAP BW
+小额贷款
+资金系统
+SAP
+SAP PI
+AD域控</t>
+  </si>
+  <si>
+    <t>研究院类</t>
+  </si>
+  <si>
+    <t>rina近红外系统</t>
+  </si>
+  <si>
+    <t>近红外系统1</t>
+  </si>
+  <si>
+    <t>吴仕辉</t>
+  </si>
+  <si>
+    <t>廖淑娜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>品管、质量管理中心</t>
+  </si>
+  <si>
+    <t>mosaic近红外系统</t>
+  </si>
+  <si>
+    <t>近红外系统2</t>
+  </si>
+  <si>
+    <t>廖淑娜</t>
+  </si>
+  <si>
+    <t>Bestmix配方管理</t>
+  </si>
+  <si>
+    <t>配方管理</t>
+  </si>
+  <si>
+    <t>赵小刚</t>
+  </si>
+  <si>
+    <t>配方师</t>
+  </si>
+  <si>
+    <t>LIMS质量检测</t>
+  </si>
+  <si>
+    <t>实验室质量检测系统</t>
+  </si>
+  <si>
+    <t>吴仕辉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/S&amp;C/S</t>
+  </si>
+  <si>
+    <t>Excel宏</t>
+  </si>
+  <si>
+    <t>数据类</t>
+  </si>
+  <si>
+    <t>OracleRAC集群</t>
+  </si>
+  <si>
+    <t>数据库集群</t>
+  </si>
+  <si>
+    <t>苏强</t>
+  </si>
+  <si>
+    <t>梁德坚</t>
+  </si>
+  <si>
+    <t>MSSQLServer集群</t>
+  </si>
+  <si>
+    <t>MYSQL集群</t>
+  </si>
+  <si>
+    <t>commvualt备份一体机</t>
+  </si>
+  <si>
+    <t>备份系统</t>
+  </si>
+  <si>
+    <t>外部访问区-DMZ区域</t>
+  </si>
+  <si>
+    <t>微信企业号管理系统</t>
+  </si>
+  <si>
+    <t>微信企业号管理</t>
+  </si>
+  <si>
+    <t>王瑞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁文鹤</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>海瑞特微信收款系统</t>
+  </si>
+  <si>
+    <t>海瑞特</t>
+  </si>
+  <si>
+    <t>冉绍剑</t>
+  </si>
+  <si>
+    <t>万颖迪</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>海兴农官网</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>招聘系统（容器）</t>
+  </si>
+  <si>
+    <t>招聘系统</t>
+  </si>
+  <si>
+    <t>张显斌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用发布系统</t>
+  </si>
+  <si>
+    <t>remoteapp1
+remoteapp2</t>
+  </si>
+  <si>
+    <t>王凌震</t>
+  </si>
+  <si>
+    <t>财务共享手机端CCWS</t>
+  </si>
+  <si>
+    <t>财务共享手机端</t>
+  </si>
+  <si>
+    <t>海大供应链金融门户--PCweb</t>
+  </si>
+  <si>
+    <t>小贷金融门户PC端</t>
+  </si>
+  <si>
+    <t>海大供应链金融门户--移动端web
+小额贷款</t>
+  </si>
+  <si>
+    <t>海大供应链金融门户--移动端web</t>
+  </si>
+  <si>
+    <t>小贷金融门户手机端</t>
+  </si>
+  <si>
+    <t>海大供应链金融门户--Pcweb
+小额贷款</t>
+  </si>
+  <si>
+    <t>补丁服务器</t>
+  </si>
+  <si>
+    <t>陈浩亮</t>
+  </si>
+  <si>
+    <t>AD域</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>OA手机端</t>
+  </si>
+  <si>
+    <t>卢斌蔚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps手机端</t>
+  </si>
+  <si>
+    <t>MEPS</t>
+  </si>
+  <si>
+    <t>EPS手机端</t>
+  </si>
+  <si>
+    <t>袁海龙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水产品溯源系统</t>
+  </si>
+  <si>
+    <t>SSL VPN</t>
+  </si>
+  <si>
+    <t>王余华</t>
+  </si>
+  <si>
+    <t>LIMSBJ</t>
+  </si>
+  <si>
+    <t>LIMS报检</t>
+  </si>
+  <si>
+    <t>缺陷管理系统</t>
+  </si>
+  <si>
+    <t>公有云</t>
+  </si>
+  <si>
+    <t>听云</t>
+  </si>
+  <si>
+    <t>应用性能分析</t>
+  </si>
+  <si>
+    <t>杨达乾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动应用系统</t>
+  </si>
+  <si>
+    <t>订单管理、开票、仓库管理</t>
+  </si>
+  <si>
+    <t>赵中华</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金系统证书RA系统</t>
+  </si>
+  <si>
+    <t>企业微信</t>
+  </si>
+  <si>
+    <t>人事档案系统</t>
+  </si>
+  <si>
+    <t>谭远根</t>
+  </si>
+  <si>
+    <t>eps
+企业微信
+单点登录
+财务共享
+ITSM系统
+客户授信系统
+考勤系统
+中控一卡通系统</t>
+  </si>
+  <si>
+    <t>考勤系统</t>
+  </si>
+  <si>
+    <t>郝志勇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事档案系统
+中控一卡通系统</t>
+  </si>
+  <si>
+    <t>总部</t>
+  </si>
+  <si>
+    <t>猪场管理</t>
+  </si>
+  <si>
+    <t>曹仁祺</t>
+  </si>
+  <si>
+    <t>猪场</t>
+  </si>
+  <si>
+    <t>客户授信系统</t>
+  </si>
+  <si>
+    <t>吴文伦</t>
+  </si>
+  <si>
+    <t>eps
+SAP
+SAP PI</t>
+  </si>
+  <si>
+    <t>不确定</t>
+  </si>
+  <si>
+    <t>ITSM系统</t>
+  </si>
+  <si>
+    <t>IT服务管理</t>
+  </si>
+  <si>
+    <t>张潇丹</t>
+  </si>
+  <si>
+    <t>人事档案系统
+AD域控</t>
+  </si>
+  <si>
+    <t>流程体系管理系统</t>
+  </si>
+  <si>
+    <t>陈沛钦</t>
+  </si>
+  <si>
+    <t>钟雪莹</t>
+  </si>
+  <si>
+    <t>流程效率报表系统</t>
+  </si>
+  <si>
+    <t>钟雪莹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户&amp;计算机管理</t>
+  </si>
+  <si>
+    <t>陈智广</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件服务器</t>
+  </si>
+  <si>
+    <t>集团文件服务器</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>邮件系统</t>
+  </si>
+  <si>
+    <t>单点登录</t>
+  </si>
+  <si>
+    <t>单点登录(EPS)</t>
+  </si>
+  <si>
+    <t>eps
+AD域控</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>OA办公</t>
+  </si>
+  <si>
+    <t>卢斌尉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事档案系统
+OA
+财务共享
+资金系统
+SAP
+SAP PI
+AD域控
+客户授信系统
+考勤系统
+EAS
+AD域控
+阿佳希</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>业务流程管理</t>
+  </si>
+  <si>
+    <t>人事档案系统
+OA
+财务共享
+资金系统
+SAP
+SAP PI
+AD域控
+客户授信系统
+考勤系统
+EAS
+小额贷款
+AD域控</t>
+  </si>
+  <si>
+    <t>源代码管理系统</t>
+  </si>
+  <si>
+    <t>源代码版本管理</t>
+  </si>
+  <si>
+    <t>C/S</t>
+  </si>
+  <si>
+    <t>Ipguard终端防泄密系统</t>
+  </si>
+  <si>
+    <t>终端防泄密</t>
+  </si>
+  <si>
+    <t>高印</t>
+  </si>
+  <si>
+    <t>LANDESK终端管理系统</t>
+  </si>
+  <si>
+    <t>终端管理</t>
+  </si>
+  <si>
+    <t>摩卡监控系统</t>
+  </si>
+  <si>
+    <t>摩卡监控</t>
+  </si>
+  <si>
+    <t>田青山</t>
+  </si>
+  <si>
+    <t>McAfee防病毒系统</t>
+  </si>
+  <si>
+    <t>防病毒系统</t>
+  </si>
+  <si>
+    <t>三A认证系统</t>
+  </si>
+  <si>
+    <t>网络设备认证</t>
+  </si>
+  <si>
+    <t>Cacti监控系统</t>
+  </si>
+  <si>
+    <t>网络设备监控</t>
+  </si>
+  <si>
+    <t>kms服务器</t>
+  </si>
+  <si>
+    <t>微软激活服务器</t>
+  </si>
+  <si>
+    <t>VMWare VCenter</t>
+  </si>
+  <si>
+    <t>VMWare虚拟化管理</t>
+  </si>
+  <si>
+    <t>吴小畅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿盟漏洞扫描</t>
+  </si>
+  <si>
+    <t>IT系统漏洞扫描</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>时间服务器</t>
+  </si>
+  <si>
+    <t>Fortinet防火墙日志系统</t>
+  </si>
+  <si>
+    <t>防火墙日志系统</t>
+  </si>
+  <si>
+    <t>TDA</t>
+  </si>
+  <si>
+    <t>公共运维终端服务器</t>
+  </si>
+  <si>
+    <t>BI数据采集</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理区</t>
+  </si>
+  <si>
+    <t>视频会议</t>
+  </si>
+  <si>
+    <t>邱富泉</t>
+  </si>
+  <si>
+    <t>海大大厦</t>
+  </si>
+  <si>
+    <t>总部理光打印系统</t>
+  </si>
+  <si>
+    <t>总部理光打印</t>
+  </si>
+  <si>
+    <t>总部、研究院</t>
+  </si>
+  <si>
+    <t>VDI系统</t>
+  </si>
+  <si>
+    <t>总部桌面虚拟化（财务共享）</t>
+  </si>
+  <si>
+    <t>landesk网络准入系统</t>
+  </si>
+  <si>
+    <t>总部网络准入系统</t>
+  </si>
+  <si>
+    <t>李国</t>
+  </si>
+  <si>
+    <t>门禁系统</t>
+  </si>
+  <si>
+    <t>总部门禁系统</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -141,8 +952,81 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +1039,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,22 +1066,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,83 +1537,2370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:Q353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" activeCellId="1" sqref="E27 C32"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1"/>
-    <col min="2" max="2" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="1"/>
-    <col min="5" max="5" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1"/>
+    <col min="1" max="1" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" ht="135" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="31"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="31"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="31"/>
+    </row>
+    <row r="40" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="31"/>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" s="31"/>
+    </row>
+    <row r="43" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="31"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="31"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="31"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="31"/>
+    </row>
+    <row r="47" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A47" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="30"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="31"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" s="31"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="30"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="30"/>
+    </row>
+    <row r="52" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="31"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="31"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="30"/>
+    </row>
+    <row r="55" spans="1:10" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="31"/>
+    </row>
+    <row r="56" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="31"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J57" s="30"/>
+    </row>
+    <row r="58" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" s="31"/>
+    </row>
+    <row r="59" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="31"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="31"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="31"/>
+    </row>
+    <row r="62" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A62" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="30"/>
+    </row>
+    <row r="63" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A63" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="30"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="31"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="31"/>
+    </row>
+    <row r="66" spans="1:10" ht="135" x14ac:dyDescent="0.2">
+      <c r="A66" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="31"/>
+    </row>
+    <row r="67" spans="1:10" ht="135" x14ac:dyDescent="0.2">
+      <c r="A67" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="31"/>
+    </row>
+    <row r="68" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A68" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="30"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="30"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="30"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="30"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="30"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="30"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="30"/>
+    </row>
+    <row r="75" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A75" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="30"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="30"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="30"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="30"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="30"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="30"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="16"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="30"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" s="16"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="30"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="30"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J84" s="30"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="30"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="30"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G87" s="25"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="30"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J88" s="30"/>
+    </row>
+    <row r="352" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q352" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="353" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q353" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H89:H1048576 G11:G67">
+      <formula1>$Q$352:$Q$353</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
